--- a/biology/Biochimie/Paul_Berg/Paul_Berg.xlsx
+++ b/biology/Biochimie/Paul_Berg/Paul_Berg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Berg, né le 30 juin 1926 à New York et mort le 15 février 2023, est un biochimiste américain et professeur émérite à l'université Stanford. Il obtint une moitié du prix Nobel de chimie de 1980[1] pour ses travaux sur les acides nucléiques.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Berg, né le 30 juin 1926 à New York et mort le 15 février 2023, est un biochimiste américain et professeur émérite à l'université Stanford. Il obtint une moitié du prix Nobel de chimie de 1980 pour ses travaux sur les acides nucléiques.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a organisé en 1975 la Conférence d'Asilomar, qui appelait à un moratoire sur les manipulations génétiques, afin d'éviter que des bactéries génétiquement modifiées puissent se disperser dans l'environnement : cela établissait le principe de précaution[2].
-En 1980, il est lauréat de la moitié du prix Nobel de chimie (l'autre moitié a été remise à Walter Gilbert et à Frederick Sanger) « pour ses études fondamentales de la biochimie des acides nucléiques, avec un regard tourné vers l'ADN recombinant[1] ». La même année il avait obtenu le prix Albert-Lasker pour la recherche médicale fondamentale.
-Il meurt le 15 février 2023[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a organisé en 1975 la Conférence d'Asilomar, qui appelait à un moratoire sur les manipulations génétiques, afin d'éviter que des bactéries génétiquement modifiées puissent se disperser dans l'environnement : cela établissait le principe de précaution.
+En 1980, il est lauréat de la moitié du prix Nobel de chimie (l'autre moitié a été remise à Walter Gilbert et à Frederick Sanger) « pour ses études fondamentales de la biochimie des acides nucléiques, avec un regard tourné vers l'ADN recombinant ». La même année il avait obtenu le prix Albert-Lasker pour la recherche médicale fondamentale.
+Il meurt le 15 février 2023,.
 </t>
         </is>
       </c>
